--- a/biology/Botanique/Lis_jaune/Lis_jaune.xlsx
+++ b/biology/Botanique/Lis_jaune/Lis_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hémérocalle jaune, Lis jaune
 Hemerocallis lilioasphodelus, l’Hémérocalle jaune ou Lis jaune, est une espèce de plantes à fleurs de la famille des Asphodelaceae et du genre Hemerocallis.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce, originaire d'Italie, ex-Yougoslavie, Asie centrale et Extrême-Orient, a été introduite dans le reste de l'Europe, en Amérique du Nord et centrale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce, originaire d'Italie, ex-Yougoslavie, Asie centrale et Extrême-Orient, a été introduite dans le reste de l'Europe, en Amérique du Nord et centrale.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante vivace de 40 à 80 cm, glabre, à fibres radicales renflées-tubéreuses. La tige est élancée, nue ou presque nue. Ses feuilles sont longuement linéaires carénées aiguës, larges de 5 à 10 mm, plus courtes que la tige. Les fleurs sont jaune pâle, grandes, à odeur de fleur d'oranger, courtement pédicellées, de 3 à 9 en grappe lâche. Les bractées sont petites, lancéolées. Le périanthe est long de 6 à 8 cm, à divisions oblongues lancéolées, planes, nervées en long, ni veinées en travers ni ondulées. Le fruit est une capsule ovoïde-subglobuleuse[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace de 40 à 80 cm, glabre, à fibres radicales renflées-tubéreuses. La tige est élancée, nue ou presque nue. Ses feuilles sont longuement linéaires carénées aiguës, larges de 5 à 10 mm, plus courtes que la tige. Les fleurs sont jaune pâle, grandes, à odeur de fleur d'oranger, courtement pédicellées, de 3 à 9 en grappe lâche. Les bractées sont petites, lancéolées. Le périanthe est long de 6 à 8 cm, à divisions oblongues lancéolées, planes, nervées en long, ni veinées en travers ni ondulées. Le fruit est une capsule ovoïde-subglobuleuse. 
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en 1753 par le naturaliste suédois Carl von Linné, qui la classe dans le genre Hemerocallis sous le nom binominal Hemerocallis lilioasphodelus[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés « Hémérocalle jaune » ou « Lis jaune »[3].
-Hemerocallis lilioasphodelus a pour synonymes[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en 1753 par le naturaliste suédois Carl von Linné, qui la classe dans le genre Hemerocallis sous le nom binominal Hemerocallis lilioasphodelus.
+Ce taxon porte en français les noms vernaculaires ou normalisés « Hémérocalle jaune » ou « Lis jaune ».
+Hemerocallis lilioasphodelus a pour synonymes :
 Cameraria lilioasphodelus (L.) Boehm.
 Hemerocallis flava (L.) L.
 Hemerocallis flava var. aurantiaca A.I.Baranov &amp; Skvortsov
